--- a/ITI/BALP/StructureDefinition-IHE.BasicAudit.Read.xlsx
+++ b/ITI/BALP/StructureDefinition-IHE.BasicAudit.Read.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.1.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-04T10:16:52-05:00</t>
+    <t>2022-10-21T09:04:31-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -85,10 +85,14 @@
   </si>
   <si>
     <t>A basic AuditEvent profile for when a RESTful Read action happens successfully.
-* Given a Resource has no Patient subject
-* And OAuth is used to authorize both app and user
-* When an App requests a RESTful Read to retrieve that Resource
-* Then an AuditEvent following this profile is recorded</t>
+- Given a Resource Read is requested 
+- And that resource does not have a Patient subject or is otherwise associated with a Patient
+  - when the resource is Patient specific then [PatientRead](StructureDefinition-IHE.BasicAudit.PatientRead.html) is used
+- And the request is authorized
+  - Authorization failures should follow [FHIR core Access Denied](http://hl7.org/fhir/security.html#AccessDenied)
+- When successful
+  - Note a failure AuditEvent may follow this pattern, but would not be a successful outcome and should have an OperationOutcome
+- Then the AuditEvent recorded will conform</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -274,10 +278,6 @@
     <t>Based on IHE-ATNA.</t>
   </si>
   <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
-  </si>
-  <si>
     <t>Event</t>
   </si>
   <si>
@@ -296,7 +296,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">string
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -683,6 +683,10 @@
   </si>
   <si>
     <t>AuditEvent.outcomeDesc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
   </si>
   <si>
     <t>Description of the event outcome</t>
@@ -2200,7 +2204,7 @@
     <col min="1" max="1" width="41.4609375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="11.15234375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.90234375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
@@ -2216,28 +2220,28 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.71484375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.08984375" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="95.56640625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="54.15625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="40.0390625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.98828125" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.3046875" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.87890625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="26.71484375" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="26.71875" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="155.37890625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="49.38671875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="49.390625" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="32.84375" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="34.4140625" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="40.0" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="40.00390625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2461,16 +2465,16 @@
         <v>78</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="AJ2" t="s" s="2">
+      <c r="AK2" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="AK2" t="s" s="2">
+      <c r="AL2" t="s" s="2">
         <v>86</v>
-      </c>
-      <c r="AL2" t="s" s="2">
-        <v>87</v>
       </c>
       <c r="AM2" t="s" s="2">
         <v>78</v>
@@ -2484,7 +2488,7 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -2495,28 +2499,28 @@
         <v>79</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I3" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I3" t="s" s="2">
+      <c r="J3" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -2566,13 +2570,13 @@
         <v>78</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>78</v>
@@ -2601,7 +2605,7 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -2612,25 +2616,25 @@
         <v>79</v>
       </c>
       <c r="F4" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I4" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G4" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H4" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J4" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>98</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>99</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -2681,19 +2685,19 @@
         <v>78</v>
       </c>
       <c r="AE4" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AF4" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI4" t="s" s="2">
         <v>100</v>
-      </c>
-      <c r="AF4" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>101</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>78</v>
@@ -2716,7 +2720,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -2727,28 +2731,28 @@
         <v>79</v>
       </c>
       <c r="F5" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H5" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G5" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H5" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="I5" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>105</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>106</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -2798,19 +2802,19 @@
         <v>78</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>78</v>
@@ -2833,7 +2837,7 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -2844,7 +2848,7 @@
         <v>79</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>78</v>
@@ -2856,16 +2860,16 @@
         <v>78</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>112</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -2891,43 +2895,43 @@
         <v>78</v>
       </c>
       <c r="W6" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="X6" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="X6" t="s" s="2">
+      <c r="Y6" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="Z6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>116</v>
-      </c>
       <c r="AF6" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>78</v>
@@ -2950,18 +2954,18 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>78</v>
@@ -2973,16 +2977,16 @@
         <v>78</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="L7" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>122</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -3032,25 +3036,25 @@
         <v>78</v>
       </c>
       <c r="AE7" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK7" t="s" s="2">
         <v>123</v>
-      </c>
-      <c r="AF7" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>124</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>78</v>
@@ -3067,11 +3071,11 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -3090,16 +3094,16 @@
         <v>78</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -3149,7 +3153,7 @@
         <v>78</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>79</v>
@@ -3167,7 +3171,7 @@
         <v>78</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>78</v>
@@ -3184,11 +3188,11 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -3207,16 +3211,16 @@
         <v>78</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>138</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -3266,7 +3270,7 @@
         <v>78</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>79</v>
@@ -3278,13 +3282,13 @@
         <v>78</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>78</v>
@@ -3301,11 +3305,11 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -3318,25 +3322,25 @@
         <v>78</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="N10" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="O10" t="s" s="2">
         <v>78</v>
@@ -3385,7 +3389,7 @@
         <v>78</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>79</v>
@@ -3397,13 +3401,13 @@
         <v>78</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>78</v>
@@ -3420,7 +3424,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -3428,32 +3432,32 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F11" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I11" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F11" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I11" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J11" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>148</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>149</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O11" t="s" s="2">
         <v>78</v>
@@ -3463,73 +3467,73 @@
         <v>78</v>
       </c>
       <c r="R11" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="S11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W11" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="S11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W11" t="s" s="2">
+      <c r="X11" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="X11" t="s" s="2">
+      <c r="Y11" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="Y11" t="s" s="2">
+      <c r="Z11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE11" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AF11" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AG11" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI11" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ11" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="Z11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE11" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="AF11" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AG11" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI11" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ11" t="s" s="2">
+      <c r="AK11" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="AK11" t="s" s="2">
+      <c r="AL11" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="AL11" t="s" s="2">
+      <c r="AM11" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="AM11" t="s" s="2">
+      <c r="AN11" t="s" s="2">
         <v>158</v>
-      </c>
-      <c r="AN11" t="s" s="2">
-        <v>159</v>
       </c>
       <c r="AO11" t="s" s="2">
         <v>78</v>
@@ -3537,7 +3541,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -3545,7 +3549,7 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F12" t="s" s="2">
         <v>80</v>
@@ -3557,20 +3561,20 @@
         <v>78</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O12" t="s" s="2">
         <v>78</v>
@@ -3595,29 +3599,29 @@
         <v>78</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X12" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="Y12" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="Y12" t="s" s="2">
+      <c r="Z12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA12" t="s" s="2">
         <v>165</v>
-      </c>
-      <c r="Z12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA12" t="s" s="2">
-        <v>166</v>
       </c>
       <c r="AB12" s="2"/>
       <c r="AC12" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>79</v>
@@ -3629,19 +3633,19 @@
         <v>78</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>78</v>
@@ -3652,10 +3656,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C13" t="s" s="2">
         <v>78</v>
@@ -3665,39 +3669,39 @@
         <v>79</v>
       </c>
       <c r="F13" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I13" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I13" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J13" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>170</v>
+        <v>78</v>
       </c>
       <c r="R13" t="s" s="2">
-        <v>78</v>
+        <v>169</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>78</v>
@@ -3712,14 +3716,14 @@
         <v>78</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X13" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="Y13" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="Y13" t="s" s="2">
-        <v>165</v>
-      </c>
       <c r="Z13" t="s" s="2">
         <v>78</v>
       </c>
@@ -3736,7 +3740,7 @@
         <v>78</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>79</v>
@@ -3748,19 +3752,19 @@
         <v>78</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>78</v>
@@ -3771,10 +3775,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C14" t="s" s="2">
         <v>78</v>
@@ -3784,39 +3788,39 @@
         <v>79</v>
       </c>
       <c r="F14" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I14" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I14" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J14" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" t="s" s="2">
-        <v>172</v>
+        <v>78</v>
       </c>
       <c r="R14" t="s" s="2">
-        <v>78</v>
+        <v>171</v>
       </c>
       <c r="S14" t="s" s="2">
         <v>78</v>
@@ -3831,14 +3835,14 @@
         <v>78</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X14" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="Y14" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="Y14" t="s" s="2">
-        <v>165</v>
-      </c>
       <c r="Z14" t="s" s="2">
         <v>78</v>
       </c>
@@ -3855,7 +3859,7 @@
         <v>78</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>79</v>
@@ -3867,19 +3871,19 @@
         <v>78</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>78</v>
@@ -3890,7 +3894,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3901,29 +3905,29 @@
         <v>79</v>
       </c>
       <c r="F15" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I15" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I15" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J15" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>175</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>78</v>
@@ -3933,70 +3937,70 @@
         <v>78</v>
       </c>
       <c r="R15" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="S15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W15" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="S15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W15" t="s" s="2">
+      <c r="X15" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="X15" t="s" s="2">
+      <c r="Y15" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="Y15" t="s" s="2">
+      <c r="Z15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE15" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AF15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK15" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AL15" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="Z15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE15" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK15" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="AL15" t="s" s="2">
-        <v>181</v>
-      </c>
       <c r="AM15" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>78</v>
@@ -4007,7 +4011,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -4018,7 +4022,7 @@
         <v>79</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>78</v>
@@ -4030,16 +4034,16 @@
         <v>78</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="K16" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="K16" t="s" s="2">
+      <c r="L16" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>185</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>186</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -4089,42 +4093,42 @@
         <v>78</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ16" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AK16" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="AK16" t="s" s="2">
+      <c r="AL16" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="AL16" t="s" s="2">
+      <c r="AM16" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="AM16" t="s" s="2">
+      <c r="AN16" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="AN16" t="s" s="2">
+      <c r="AO16" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="AO16" t="s" s="2">
-        <v>192</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -4132,34 +4136,34 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F17" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I17" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F17" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I17" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J17" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="K17" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="K17" t="s" s="2">
+      <c r="L17" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>198</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>78</v>
@@ -4208,42 +4212,42 @@
         <v>78</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK17" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="AL17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM17" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="AL17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM17" t="s" s="2">
+      <c r="AN17" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="AN17" t="s" s="2">
+      <c r="AO17" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="AO17" t="s" s="2">
-        <v>202</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -4254,28 +4258,28 @@
         <v>79</v>
       </c>
       <c r="F18" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I18" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I18" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J18" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>205</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>206</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -4301,55 +4305,55 @@
         <v>78</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Y18" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="Z18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE18" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="AF18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK18" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="Z18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE18" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="AF18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG18" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK18" t="s" s="2">
+      <c r="AL18" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="AL18" t="s" s="2">
-        <v>209</v>
-      </c>
       <c r="AM18" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>78</v>
@@ -4360,7 +4364,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -4371,19 +4375,19 @@
         <v>79</v>
       </c>
       <c r="F19" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I19" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I19" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J19" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K19" t="s" s="2">
         <v>211</v>
@@ -4440,19 +4444,19 @@
         <v>78</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>78</v>
@@ -4464,7 +4468,7 @@
         <v>214</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>78</v>
@@ -4495,7 +4499,7 @@
         <v>78</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J20" t="s" s="2">
         <v>216</v>
@@ -4533,7 +4537,7 @@
         <v>78</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X20" t="s" s="2">
         <v>220</v>
@@ -4569,7 +4573,7 @@
         <v>78</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>222</v>
@@ -4671,13 +4675,13 @@
         <v>78</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AE21" t="s" s="2">
         <v>228</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
@@ -4686,7 +4690,7 @@
         <v>78</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>237</v>
@@ -4720,7 +4724,7 @@
         <v>79</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>78</v>
@@ -4732,7 +4736,7 @@
         <v>78</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K22" t="s" s="2">
         <v>244</v>
@@ -4795,7 +4799,7 @@
         <v>79</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>78</v>
@@ -4828,7 +4832,7 @@
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -4847,16 +4851,16 @@
         <v>78</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K23" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L23" t="s" s="2">
         <v>249</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -4918,7 +4922,7 @@
         <v>78</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>78</v>
@@ -4958,13 +4962,13 @@
         <v>78</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K24" t="s" s="2">
         <v>253</v>
@@ -4973,10 +4977,10 @@
         <v>254</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>78</v>
@@ -5037,13 +5041,13 @@
         <v>78</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>78</v>
@@ -5071,7 +5075,7 @@
         <v>79</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>78</v>
@@ -5116,7 +5120,7 @@
         <v>78</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X25" t="s" s="2">
         <v>259</v>
@@ -5146,13 +5150,13 @@
         <v>79</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>261</v>
@@ -5271,7 +5275,7 @@
         <v>78</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>78</v>
@@ -5305,16 +5309,16 @@
         <v>79</v>
       </c>
       <c r="F27" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I27" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="G27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I27" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J27" t="s" s="2">
         <v>278</v>
@@ -5384,13 +5388,13 @@
         <v>79</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>283</v>
@@ -5424,7 +5428,7 @@
         <v>79</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>78</v>
@@ -5436,7 +5440,7 @@
         <v>78</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K28" t="s" s="2">
         <v>289</v>
@@ -5501,13 +5505,13 @@
         <v>79</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>78</v>
@@ -5541,7 +5545,7 @@
         <v>79</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>78</v>
@@ -5553,7 +5557,7 @@
         <v>78</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K29" t="s" s="2">
         <v>295</v>
@@ -5618,13 +5622,13 @@
         <v>79</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>78</v>
@@ -5655,19 +5659,19 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F30" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I30" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="F30" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I30" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J30" t="s" s="2">
         <v>301</v>
@@ -5734,16 +5738,16 @@
         <v>300</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>78</v>
@@ -5777,7 +5781,7 @@
         <v>79</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>78</v>
@@ -5852,13 +5856,13 @@
         <v>79</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>312</v>
@@ -5904,7 +5908,7 @@
         <v>78</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K32" t="s" s="2">
         <v>318</v>
@@ -5977,7 +5981,7 @@
         <v>78</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>78</v>
@@ -6011,7 +6015,7 @@
         <v>79</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>78</v>
@@ -6023,7 +6027,7 @@
         <v>78</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K33" t="s" s="2">
         <v>326</v>
@@ -6058,7 +6062,7 @@
         <v>78</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X33" t="s" s="2">
         <v>329</v>
@@ -6088,13 +6092,13 @@
         <v>79</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>78</v>
@@ -6128,7 +6132,7 @@
         <v>79</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>78</v>
@@ -6203,13 +6207,13 @@
         <v>79</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>78</v>
@@ -6243,7 +6247,7 @@
         <v>79</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>78</v>
@@ -6255,7 +6259,7 @@
         <v>78</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K35" t="s" s="2">
         <v>244</v>
@@ -6318,7 +6322,7 @@
         <v>79</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>78</v>
@@ -6351,7 +6355,7 @@
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -6370,16 +6374,16 @@
         <v>78</v>
       </c>
       <c r="J36" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K36" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K36" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L36" t="s" s="2">
         <v>249</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -6441,7 +6445,7 @@
         <v>78</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>78</v>
@@ -6481,13 +6485,13 @@
         <v>78</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K37" t="s" s="2">
         <v>253</v>
@@ -6496,10 +6500,10 @@
         <v>254</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>78</v>
@@ -6560,13 +6564,13 @@
         <v>78</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>78</v>
@@ -6594,7 +6598,7 @@
         <v>79</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>78</v>
@@ -6606,7 +6610,7 @@
         <v>78</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K38" t="s" s="2">
         <v>341</v>
@@ -6673,13 +6677,13 @@
         <v>79</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>78</v>
@@ -6713,7 +6717,7 @@
         <v>79</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>78</v>
@@ -6725,7 +6729,7 @@
         <v>78</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K39" t="s" s="2">
         <v>349</v>
@@ -6760,7 +6764,7 @@
         <v>78</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="X39" t="s" s="2">
         <v>352</v>
@@ -6790,13 +6794,13 @@
         <v>79</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>78</v>
@@ -6877,7 +6881,7 @@
         <v>78</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X40" t="s" s="2">
         <v>220</v>
@@ -6913,7 +6917,7 @@
         <v>78</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>78</v>
@@ -6946,10 +6950,10 @@
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>78</v>
@@ -7025,7 +7029,7 @@
         <v>228</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -7034,7 +7038,7 @@
         <v>78</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>237</v>
@@ -7068,7 +7072,7 @@
         <v>79</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>78</v>
@@ -7080,7 +7084,7 @@
         <v>78</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K42" t="s" s="2">
         <v>244</v>
@@ -7143,7 +7147,7 @@
         <v>79</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>78</v>
@@ -7176,7 +7180,7 @@
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
@@ -7195,16 +7199,16 @@
         <v>78</v>
       </c>
       <c r="J43" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K43" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K43" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L43" t="s" s="2">
         <v>249</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -7266,7 +7270,7 @@
         <v>78</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>78</v>
@@ -7306,13 +7310,13 @@
         <v>78</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K44" t="s" s="2">
         <v>253</v>
@@ -7321,10 +7325,10 @@
         <v>254</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>78</v>
@@ -7385,13 +7389,13 @@
         <v>78</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>78</v>
@@ -7416,10 +7420,10 @@
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>78</v>
@@ -7464,7 +7468,7 @@
         <v>78</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X45" t="s" s="2">
         <v>259</v>
@@ -7494,13 +7498,13 @@
         <v>79</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>261</v>
@@ -7619,7 +7623,7 @@
         <v>78</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>78</v>
@@ -7650,19 +7654,19 @@
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F47" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I47" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="F47" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G47" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H47" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I47" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J47" t="s" s="2">
         <v>278</v>
@@ -7732,13 +7736,13 @@
         <v>79</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>283</v>
@@ -7772,7 +7776,7 @@
         <v>79</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>78</v>
@@ -7784,7 +7788,7 @@
         <v>78</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K48" t="s" s="2">
         <v>289</v>
@@ -7849,13 +7853,13 @@
         <v>79</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>78</v>
@@ -7889,7 +7893,7 @@
         <v>79</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>78</v>
@@ -7901,7 +7905,7 @@
         <v>78</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K49" t="s" s="2">
         <v>295</v>
@@ -7966,13 +7970,13 @@
         <v>79</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>78</v>
@@ -8003,19 +8007,19 @@
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F50" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I50" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="F50" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I50" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J50" t="s" s="2">
         <v>301</v>
@@ -8082,16 +8086,16 @@
         <v>300</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>78</v>
@@ -8125,7 +8129,7 @@
         <v>79</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>78</v>
@@ -8200,13 +8204,13 @@
         <v>79</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>312</v>
@@ -8252,7 +8256,7 @@
         <v>78</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K52" t="s" s="2">
         <v>318</v>
@@ -8325,7 +8329,7 @@
         <v>78</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>78</v>
@@ -8371,7 +8375,7 @@
         <v>78</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K53" t="s" s="2">
         <v>326</v>
@@ -8406,7 +8410,7 @@
         <v>78</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X53" t="s" s="2">
         <v>329</v>
@@ -8436,13 +8440,13 @@
         <v>79</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>78</v>
@@ -8473,10 +8477,10 @@
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>78</v>
@@ -8551,13 +8555,13 @@
         <v>79</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>78</v>
@@ -8591,7 +8595,7 @@
         <v>79</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>78</v>
@@ -8603,7 +8607,7 @@
         <v>78</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K55" t="s" s="2">
         <v>244</v>
@@ -8666,7 +8670,7 @@
         <v>79</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>78</v>
@@ -8699,7 +8703,7 @@
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
@@ -8718,16 +8722,16 @@
         <v>78</v>
       </c>
       <c r="J56" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K56" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K56" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L56" t="s" s="2">
         <v>249</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -8789,7 +8793,7 @@
         <v>78</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>78</v>
@@ -8829,13 +8833,13 @@
         <v>78</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K57" t="s" s="2">
         <v>253</v>
@@ -8844,10 +8848,10 @@
         <v>254</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>78</v>
@@ -8908,13 +8912,13 @@
         <v>78</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>78</v>
@@ -8942,7 +8946,7 @@
         <v>79</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>78</v>
@@ -8954,7 +8958,7 @@
         <v>78</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K58" t="s" s="2">
         <v>341</v>
@@ -9021,13 +9025,13 @@
         <v>79</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>78</v>
@@ -9061,7 +9065,7 @@
         <v>79</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>78</v>
@@ -9073,7 +9077,7 @@
         <v>78</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K59" t="s" s="2">
         <v>349</v>
@@ -9108,7 +9112,7 @@
         <v>78</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="X59" t="s" s="2">
         <v>352</v>
@@ -9138,13 +9142,13 @@
         <v>79</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>78</v>
@@ -9225,7 +9229,7 @@
         <v>78</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X60" t="s" s="2">
         <v>220</v>
@@ -9261,7 +9265,7 @@
         <v>78</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>78</v>
@@ -9294,10 +9298,10 @@
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>78</v>
@@ -9373,7 +9377,7 @@
         <v>228</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
@@ -9382,7 +9386,7 @@
         <v>78</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>237</v>
@@ -9416,7 +9420,7 @@
         <v>79</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>78</v>
@@ -9428,7 +9432,7 @@
         <v>78</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K62" t="s" s="2">
         <v>244</v>
@@ -9491,7 +9495,7 @@
         <v>79</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>78</v>
@@ -9524,7 +9528,7 @@
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -9543,16 +9547,16 @@
         <v>78</v>
       </c>
       <c r="J63" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K63" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K63" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L63" t="s" s="2">
         <v>249</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -9614,7 +9618,7 @@
         <v>78</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>78</v>
@@ -9654,13 +9658,13 @@
         <v>78</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K64" t="s" s="2">
         <v>253</v>
@@ -9669,10 +9673,10 @@
         <v>254</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>78</v>
@@ -9733,13 +9737,13 @@
         <v>78</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>78</v>
@@ -9764,10 +9768,10 @@
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>78</v>
@@ -9812,7 +9816,7 @@
         <v>78</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X65" t="s" s="2">
         <v>259</v>
@@ -9842,13 +9846,13 @@
         <v>79</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>261</v>
@@ -9967,7 +9971,7 @@
         <v>78</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>78</v>
@@ -9998,19 +10002,19 @@
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F67" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I67" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="F67" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I67" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J67" t="s" s="2">
         <v>278</v>
@@ -10080,13 +10084,13 @@
         <v>79</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>283</v>
@@ -10120,7 +10124,7 @@
         <v>79</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>78</v>
@@ -10132,7 +10136,7 @@
         <v>78</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K68" t="s" s="2">
         <v>289</v>
@@ -10197,13 +10201,13 @@
         <v>79</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>78</v>
@@ -10237,7 +10241,7 @@
         <v>79</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>78</v>
@@ -10249,7 +10253,7 @@
         <v>78</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K69" t="s" s="2">
         <v>295</v>
@@ -10314,13 +10318,13 @@
         <v>79</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>78</v>
@@ -10351,19 +10355,19 @@
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F70" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I70" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="F70" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I70" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J70" t="s" s="2">
         <v>301</v>
@@ -10430,16 +10434,16 @@
         <v>300</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>78</v>
@@ -10473,7 +10477,7 @@
         <v>79</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>78</v>
@@ -10548,13 +10552,13 @@
         <v>79</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>312</v>
@@ -10600,7 +10604,7 @@
         <v>78</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K72" t="s" s="2">
         <v>318</v>
@@ -10673,7 +10677,7 @@
         <v>78</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>78</v>
@@ -10719,7 +10723,7 @@
         <v>78</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K73" t="s" s="2">
         <v>326</v>
@@ -10754,7 +10758,7 @@
         <v>78</v>
       </c>
       <c r="W73" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X73" t="s" s="2">
         <v>329</v>
@@ -10784,13 +10788,13 @@
         <v>79</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>78</v>
@@ -10821,10 +10825,10 @@
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>78</v>
@@ -10899,13 +10903,13 @@
         <v>79</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>78</v>
@@ -10939,7 +10943,7 @@
         <v>79</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>78</v>
@@ -10951,7 +10955,7 @@
         <v>78</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K75" t="s" s="2">
         <v>244</v>
@@ -11014,7 +11018,7 @@
         <v>79</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>78</v>
@@ -11047,7 +11051,7 @@
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
@@ -11066,16 +11070,16 @@
         <v>78</v>
       </c>
       <c r="J76" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K76" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K76" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L76" t="s" s="2">
         <v>249</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
@@ -11137,7 +11141,7 @@
         <v>78</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>78</v>
@@ -11177,13 +11181,13 @@
         <v>78</v>
       </c>
       <c r="H77" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K77" t="s" s="2">
         <v>253</v>
@@ -11192,10 +11196,10 @@
         <v>254</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O77" t="s" s="2">
         <v>78</v>
@@ -11256,13 +11260,13 @@
         <v>78</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>78</v>
@@ -11290,7 +11294,7 @@
         <v>79</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>78</v>
@@ -11302,7 +11306,7 @@
         <v>78</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K78" t="s" s="2">
         <v>341</v>
@@ -11369,13 +11373,13 @@
         <v>79</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>78</v>
@@ -11409,7 +11413,7 @@
         <v>79</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>78</v>
@@ -11421,7 +11425,7 @@
         <v>78</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K79" t="s" s="2">
         <v>349</v>
@@ -11456,7 +11460,7 @@
         <v>78</v>
       </c>
       <c r="W79" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="X79" t="s" s="2">
         <v>352</v>
@@ -11486,13 +11490,13 @@
         <v>79</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>78</v>
@@ -11573,7 +11577,7 @@
         <v>78</v>
       </c>
       <c r="W80" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X80" t="s" s="2">
         <v>220</v>
@@ -11609,7 +11613,7 @@
         <v>78</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>78</v>
@@ -11645,7 +11649,7 @@
         <v>79</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>78</v>
@@ -11721,7 +11725,7 @@
         <v>228</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>80</v>
@@ -11730,7 +11734,7 @@
         <v>78</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>237</v>
@@ -11764,7 +11768,7 @@
         <v>79</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>78</v>
@@ -11776,7 +11780,7 @@
         <v>78</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K82" t="s" s="2">
         <v>244</v>
@@ -11839,7 +11843,7 @@
         <v>79</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>78</v>
@@ -11872,7 +11876,7 @@
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
@@ -11891,16 +11895,16 @@
         <v>78</v>
       </c>
       <c r="J83" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K83" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K83" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L83" t="s" s="2">
         <v>249</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
@@ -11962,7 +11966,7 @@
         <v>78</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>78</v>
@@ -12002,13 +12006,13 @@
         <v>78</v>
       </c>
       <c r="H84" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I84" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K84" t="s" s="2">
         <v>253</v>
@@ -12017,10 +12021,10 @@
         <v>254</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O84" t="s" s="2">
         <v>78</v>
@@ -12081,13 +12085,13 @@
         <v>78</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>78</v>
@@ -12112,10 +12116,10 @@
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F85" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G85" t="s" s="2">
         <v>78</v>
@@ -12160,7 +12164,7 @@
         <v>78</v>
       </c>
       <c r="W85" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X85" t="s" s="2">
         <v>259</v>
@@ -12190,13 +12194,13 @@
         <v>79</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH85" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ85" t="s" s="2">
         <v>261</v>
@@ -12233,7 +12237,7 @@
         <v>80</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>78</v>
@@ -12315,7 +12319,7 @@
         <v>78</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ86" t="s" s="2">
         <v>78</v>
@@ -12346,19 +12350,19 @@
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F87" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I87" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="F87" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I87" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J87" t="s" s="2">
         <v>278</v>
@@ -12428,13 +12432,13 @@
         <v>79</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH87" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ87" t="s" s="2">
         <v>283</v>
@@ -12468,7 +12472,7 @@
         <v>79</v>
       </c>
       <c r="F88" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G88" t="s" s="2">
         <v>78</v>
@@ -12480,7 +12484,7 @@
         <v>78</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K88" t="s" s="2">
         <v>289</v>
@@ -12545,13 +12549,13 @@
         <v>79</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH88" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ88" t="s" s="2">
         <v>78</v>
@@ -12585,11 +12589,11 @@
         <v>79</v>
       </c>
       <c r="F89" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G89" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G89" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="H89" t="s" s="2">
         <v>78</v>
       </c>
@@ -12597,7 +12601,7 @@
         <v>78</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K89" t="s" s="2">
         <v>295</v>
@@ -12662,13 +12666,13 @@
         <v>79</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH89" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ89" t="s" s="2">
         <v>78</v>
@@ -12699,19 +12703,19 @@
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F90" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I90" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="F90" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I90" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J90" t="s" s="2">
         <v>301</v>
@@ -12778,16 +12782,16 @@
         <v>300</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH90" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ90" t="s" s="2">
         <v>78</v>
@@ -12821,7 +12825,7 @@
         <v>79</v>
       </c>
       <c r="F91" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G91" t="s" s="2">
         <v>78</v>
@@ -12896,13 +12900,13 @@
         <v>79</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH91" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ91" t="s" s="2">
         <v>312</v>
@@ -12948,7 +12952,7 @@
         <v>78</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K92" t="s" s="2">
         <v>318</v>
@@ -13021,7 +13025,7 @@
         <v>78</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ92" t="s" s="2">
         <v>78</v>
@@ -13067,7 +13071,7 @@
         <v>78</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K93" t="s" s="2">
         <v>326</v>
@@ -13102,7 +13106,7 @@
         <v>78</v>
       </c>
       <c r="W93" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X93" t="s" s="2">
         <v>329</v>
@@ -13132,13 +13136,13 @@
         <v>79</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH93" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ93" t="s" s="2">
         <v>78</v>
@@ -13247,13 +13251,13 @@
         <v>79</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH94" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ94" t="s" s="2">
         <v>78</v>
@@ -13287,7 +13291,7 @@
         <v>79</v>
       </c>
       <c r="F95" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G95" t="s" s="2">
         <v>78</v>
@@ -13299,7 +13303,7 @@
         <v>78</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K95" t="s" s="2">
         <v>244</v>
@@ -13362,7 +13366,7 @@
         <v>79</v>
       </c>
       <c r="AG95" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH95" t="s" s="2">
         <v>78</v>
@@ -13395,7 +13399,7 @@
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" t="s" s="2">
@@ -13414,16 +13418,16 @@
         <v>78</v>
       </c>
       <c r="J96" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K96" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K96" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L96" t="s" s="2">
         <v>249</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" t="s" s="2">
@@ -13485,7 +13489,7 @@
         <v>78</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ96" t="s" s="2">
         <v>78</v>
@@ -13525,13 +13529,13 @@
         <v>78</v>
       </c>
       <c r="H97" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I97" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K97" t="s" s="2">
         <v>253</v>
@@ -13540,10 +13544,10 @@
         <v>254</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O97" t="s" s="2">
         <v>78</v>
@@ -13604,13 +13608,13 @@
         <v>78</v>
       </c>
       <c r="AI97" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ97" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL97" t="s" s="2">
         <v>78</v>
@@ -13638,7 +13642,7 @@
         <v>79</v>
       </c>
       <c r="F98" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G98" t="s" s="2">
         <v>78</v>
@@ -13650,7 +13654,7 @@
         <v>78</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K98" t="s" s="2">
         <v>341</v>
@@ -13717,13 +13721,13 @@
         <v>79</v>
       </c>
       <c r="AG98" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH98" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI98" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ98" t="s" s="2">
         <v>78</v>
@@ -13757,7 +13761,7 @@
         <v>79</v>
       </c>
       <c r="F99" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G99" t="s" s="2">
         <v>78</v>
@@ -13769,7 +13773,7 @@
         <v>78</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K99" t="s" s="2">
         <v>349</v>
@@ -13804,7 +13808,7 @@
         <v>78</v>
       </c>
       <c r="W99" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="X99" t="s" s="2">
         <v>352</v>
@@ -13834,13 +13838,13 @@
         <v>79</v>
       </c>
       <c r="AG99" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH99" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI99" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ99" t="s" s="2">
         <v>78</v>
@@ -13877,7 +13881,7 @@
         <v>80</v>
       </c>
       <c r="G100" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H100" t="s" s="2">
         <v>78</v>
@@ -13921,7 +13925,7 @@
         <v>78</v>
       </c>
       <c r="W100" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X100" t="s" s="2">
         <v>220</v>
@@ -13957,7 +13961,7 @@
         <v>78</v>
       </c>
       <c r="AI100" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ100" t="s" s="2">
         <v>78</v>
@@ -13988,13 +13992,13 @@
       </c>
       <c r="D101" s="2"/>
       <c r="E101" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F101" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G101" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="F101" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G101" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="H101" t="s" s="2">
         <v>78</v>
@@ -14067,16 +14071,16 @@
         <v>368</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG101" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH101" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI101" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ101" t="s" s="2">
         <v>78</v>
@@ -14110,7 +14114,7 @@
         <v>79</v>
       </c>
       <c r="F102" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G102" t="s" s="2">
         <v>78</v>
@@ -14122,7 +14126,7 @@
         <v>78</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K102" t="s" s="2">
         <v>244</v>
@@ -14185,7 +14189,7 @@
         <v>79</v>
       </c>
       <c r="AG102" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH102" t="s" s="2">
         <v>78</v>
@@ -14218,7 +14222,7 @@
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" t="s" s="2">
@@ -14237,16 +14241,16 @@
         <v>78</v>
       </c>
       <c r="J103" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K103" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K103" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L103" t="s" s="2">
         <v>249</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" t="s" s="2">
@@ -14308,7 +14312,7 @@
         <v>78</v>
       </c>
       <c r="AI103" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ103" t="s" s="2">
         <v>78</v>
@@ -14348,13 +14352,13 @@
         <v>78</v>
       </c>
       <c r="H104" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I104" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K104" t="s" s="2">
         <v>253</v>
@@ -14363,10 +14367,10 @@
         <v>254</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O104" t="s" s="2">
         <v>78</v>
@@ -14427,13 +14431,13 @@
         <v>78</v>
       </c>
       <c r="AI104" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ104" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL104" t="s" s="2">
         <v>78</v>
@@ -14461,7 +14465,7 @@
         <v>79</v>
       </c>
       <c r="F105" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G105" t="s" s="2">
         <v>78</v>
@@ -14473,7 +14477,7 @@
         <v>78</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K105" t="s" s="2">
         <v>380</v>
@@ -14538,13 +14542,13 @@
         <v>79</v>
       </c>
       <c r="AG105" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH105" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI105" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ105" t="s" s="2">
         <v>78</v>
@@ -14575,19 +14579,19 @@
       </c>
       <c r="D106" s="2"/>
       <c r="E106" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F106" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G106" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H106" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I106" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="F106" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G106" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H106" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I106" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J106" t="s" s="2">
         <v>278</v>
@@ -14652,16 +14656,16 @@
         <v>385</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG106" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH106" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI106" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ106" t="s" s="2">
         <v>78</v>
@@ -14707,7 +14711,7 @@
         <v>78</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K107" t="s" s="2">
         <v>392</v>
@@ -14742,7 +14746,7 @@
         <v>78</v>
       </c>
       <c r="W107" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X107" t="s" s="2">
         <v>395</v>
@@ -14778,7 +14782,7 @@
         <v>78</v>
       </c>
       <c r="AI107" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ107" t="s" s="2">
         <v>78</v>
@@ -14809,7 +14813,7 @@
       </c>
       <c r="D108" s="2"/>
       <c r="E108" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F108" t="s" s="2">
         <v>80</v>
@@ -14880,7 +14884,7 @@
         <v>78</v>
       </c>
       <c r="AD108" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AE108" t="s" s="2">
         <v>399</v>
@@ -14907,7 +14911,7 @@
         <v>407</v>
       </c>
       <c r="AM108" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN108" t="s" s="2">
         <v>408</v>
@@ -14929,7 +14933,7 @@
         <v>79</v>
       </c>
       <c r="F109" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G109" t="s" s="2">
         <v>78</v>
@@ -14941,7 +14945,7 @@
         <v>78</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K109" t="s" s="2">
         <v>244</v>
@@ -15004,7 +15008,7 @@
         <v>79</v>
       </c>
       <c r="AG109" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH109" t="s" s="2">
         <v>78</v>
@@ -15037,7 +15041,7 @@
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D110" s="2"/>
       <c r="E110" t="s" s="2">
@@ -15056,16 +15060,16 @@
         <v>78</v>
       </c>
       <c r="J110" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K110" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K110" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L110" t="s" s="2">
         <v>249</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N110" s="2"/>
       <c r="O110" t="s" s="2">
@@ -15127,7 +15131,7 @@
         <v>78</v>
       </c>
       <c r="AI110" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ110" t="s" s="2">
         <v>78</v>
@@ -15167,13 +15171,13 @@
         <v>78</v>
       </c>
       <c r="H111" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I111" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K111" t="s" s="2">
         <v>253</v>
@@ -15182,10 +15186,10 @@
         <v>254</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N111" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O111" t="s" s="2">
         <v>78</v>
@@ -15246,13 +15250,13 @@
         <v>78</v>
       </c>
       <c r="AI111" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ111" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL111" t="s" s="2">
         <v>78</v>
@@ -15280,16 +15284,16 @@
         <v>79</v>
       </c>
       <c r="F112" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G112" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H112" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I112" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="G112" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H112" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I112" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J112" t="s" s="2">
         <v>414</v>
@@ -15355,13 +15359,13 @@
         <v>79</v>
       </c>
       <c r="AG112" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH112" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI112" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ112" t="s" s="2">
         <v>78</v>
@@ -15373,7 +15377,7 @@
         <v>417</v>
       </c>
       <c r="AM112" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN112" t="s" s="2">
         <v>78</v>
@@ -15395,7 +15399,7 @@
         <v>79</v>
       </c>
       <c r="F113" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G113" t="s" s="2">
         <v>78</v>
@@ -15407,7 +15411,7 @@
         <v>78</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K113" t="s" s="2">
         <v>420</v>
@@ -15444,7 +15448,7 @@
         <v>78</v>
       </c>
       <c r="W113" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X113" t="s" s="2">
         <v>424</v>
@@ -15474,13 +15478,13 @@
         <v>79</v>
       </c>
       <c r="AG113" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH113" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI113" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ113" t="s" s="2">
         <v>78</v>
@@ -15492,7 +15496,7 @@
         <v>427</v>
       </c>
       <c r="AM113" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN113" t="s" s="2">
         <v>428</v>
@@ -15514,7 +15518,7 @@
         <v>79</v>
       </c>
       <c r="F114" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G114" t="s" s="2">
         <v>78</v>
@@ -15526,7 +15530,7 @@
         <v>78</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K114" t="s" s="2">
         <v>431</v>
@@ -15561,7 +15565,7 @@
         <v>78</v>
       </c>
       <c r="W114" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X114" t="s" s="2">
         <v>434</v>
@@ -15591,13 +15595,13 @@
         <v>79</v>
       </c>
       <c r="AG114" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH114" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI114" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ114" t="s" s="2">
         <v>78</v>
@@ -15631,7 +15635,7 @@
         <v>79</v>
       </c>
       <c r="F115" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G115" t="s" s="2">
         <v>78</v>
@@ -15643,7 +15647,7 @@
         <v>78</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K115" t="s" s="2">
         <v>441</v>
@@ -15680,7 +15684,7 @@
         <v>78</v>
       </c>
       <c r="W115" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X115" t="s" s="2">
         <v>442</v>
@@ -15710,13 +15714,13 @@
         <v>79</v>
       </c>
       <c r="AG115" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH115" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI115" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ115" t="s" s="2">
         <v>78</v>
@@ -15762,7 +15766,7 @@
         <v>78</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K116" t="s" s="2">
         <v>450</v>
@@ -15799,7 +15803,7 @@
         <v>78</v>
       </c>
       <c r="W116" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X116" t="s" s="2">
         <v>454</v>
@@ -15835,7 +15839,7 @@
         <v>78</v>
       </c>
       <c r="AI116" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ116" t="s" s="2">
         <v>78</v>
@@ -15869,19 +15873,19 @@
         <v>79</v>
       </c>
       <c r="F117" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G117" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H117" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I117" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G117" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H117" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I117" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J117" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K117" t="s" s="2">
         <v>459</v>
@@ -15948,13 +15952,13 @@
         <v>79</v>
       </c>
       <c r="AG117" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH117" t="s" s="2">
         <v>463</v>
       </c>
       <c r="AI117" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ117" t="s" s="2">
         <v>78</v>
@@ -15988,7 +15992,7 @@
         <v>79</v>
       </c>
       <c r="F118" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G118" t="s" s="2">
         <v>78</v>
@@ -16000,7 +16004,7 @@
         <v>78</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K118" t="s" s="2">
         <v>468</v>
@@ -16065,13 +16069,13 @@
         <v>79</v>
       </c>
       <c r="AG118" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH118" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI118" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ118" t="s" s="2">
         <v>78</v>
@@ -16105,16 +16109,16 @@
         <v>79</v>
       </c>
       <c r="F119" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G119" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H119" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I119" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="G119" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H119" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I119" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J119" t="s" s="2">
         <v>473</v>
@@ -16184,13 +16188,13 @@
         <v>79</v>
       </c>
       <c r="AG119" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH119" t="s" s="2">
         <v>463</v>
       </c>
       <c r="AI119" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ119" t="s" s="2">
         <v>78</v>
@@ -16307,7 +16311,7 @@
         <v>78</v>
       </c>
       <c r="AI120" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ120" t="s" s="2">
         <v>78</v>
@@ -16341,7 +16345,7 @@
         <v>79</v>
       </c>
       <c r="F121" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G121" t="s" s="2">
         <v>78</v>
@@ -16353,7 +16357,7 @@
         <v>78</v>
       </c>
       <c r="J121" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K121" t="s" s="2">
         <v>244</v>
@@ -16416,7 +16420,7 @@
         <v>79</v>
       </c>
       <c r="AG121" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH121" t="s" s="2">
         <v>78</v>
@@ -16449,7 +16453,7 @@
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D122" s="2"/>
       <c r="E122" t="s" s="2">
@@ -16468,16 +16472,16 @@
         <v>78</v>
       </c>
       <c r="J122" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K122" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K122" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L122" t="s" s="2">
         <v>249</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N122" s="2"/>
       <c r="O122" t="s" s="2">
@@ -16539,7 +16543,7 @@
         <v>78</v>
       </c>
       <c r="AI122" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ122" t="s" s="2">
         <v>78</v>
@@ -16579,13 +16583,13 @@
         <v>78</v>
       </c>
       <c r="H123" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I123" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J123" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K123" t="s" s="2">
         <v>253</v>
@@ -16594,10 +16598,10 @@
         <v>254</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N123" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O123" t="s" s="2">
         <v>78</v>
@@ -16658,13 +16662,13 @@
         <v>78</v>
       </c>
       <c r="AI123" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ123" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK123" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL123" t="s" s="2">
         <v>78</v>
@@ -16689,10 +16693,10 @@
       </c>
       <c r="D124" s="2"/>
       <c r="E124" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F124" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G124" t="s" s="2">
         <v>78</v>
@@ -16704,7 +16708,7 @@
         <v>78</v>
       </c>
       <c r="J124" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K124" t="s" s="2">
         <v>490</v>
@@ -16764,16 +16768,16 @@
         <v>489</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG124" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH124" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI124" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ124" t="s" s="2">
         <v>78</v>
@@ -16804,10 +16808,10 @@
       </c>
       <c r="D125" s="2"/>
       <c r="E125" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F125" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G125" t="s" s="2">
         <v>78</v>
@@ -16883,16 +16887,16 @@
         <v>493</v>
       </c>
       <c r="AF125" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG125" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH125" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI125" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ125" t="s" s="2">
         <v>78</v>
@@ -16928,7 +16932,7 @@
         <v>79</v>
       </c>
       <c r="F126" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G126" t="s" s="2">
         <v>78</v>
@@ -17025,7 +17029,7 @@
         <v>407</v>
       </c>
       <c r="AM126" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN126" t="s" s="2">
         <v>408</v>
@@ -17047,7 +17051,7 @@
         <v>79</v>
       </c>
       <c r="F127" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G127" t="s" s="2">
         <v>78</v>
@@ -17059,7 +17063,7 @@
         <v>78</v>
       </c>
       <c r="J127" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K127" t="s" s="2">
         <v>244</v>
@@ -17122,7 +17126,7 @@
         <v>79</v>
       </c>
       <c r="AG127" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH127" t="s" s="2">
         <v>78</v>
@@ -17155,7 +17159,7 @@
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D128" s="2"/>
       <c r="E128" t="s" s="2">
@@ -17174,16 +17178,16 @@
         <v>78</v>
       </c>
       <c r="J128" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K128" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K128" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L128" t="s" s="2">
         <v>249</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N128" s="2"/>
       <c r="O128" t="s" s="2">
@@ -17245,7 +17249,7 @@
         <v>78</v>
       </c>
       <c r="AI128" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ128" t="s" s="2">
         <v>78</v>
@@ -17285,13 +17289,13 @@
         <v>78</v>
       </c>
       <c r="H129" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I129" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J129" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K129" t="s" s="2">
         <v>253</v>
@@ -17300,10 +17304,10 @@
         <v>254</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N129" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O129" t="s" s="2">
         <v>78</v>
@@ -17364,13 +17368,13 @@
         <v>78</v>
       </c>
       <c r="AI129" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ129" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK129" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL129" t="s" s="2">
         <v>78</v>
@@ -17398,16 +17402,16 @@
         <v>79</v>
       </c>
       <c r="F130" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G130" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H130" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I130" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="G130" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H130" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I130" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J130" t="s" s="2">
         <v>414</v>
@@ -17473,13 +17477,13 @@
         <v>79</v>
       </c>
       <c r="AG130" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH130" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI130" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ130" t="s" s="2">
         <v>78</v>
@@ -17491,7 +17495,7 @@
         <v>417</v>
       </c>
       <c r="AM130" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN130" t="s" s="2">
         <v>78</v>
@@ -17513,7 +17517,7 @@
         <v>79</v>
       </c>
       <c r="F131" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G131" t="s" s="2">
         <v>78</v>
@@ -17525,7 +17529,7 @@
         <v>78</v>
       </c>
       <c r="J131" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K131" t="s" s="2">
         <v>244</v>
@@ -17588,7 +17592,7 @@
         <v>79</v>
       </c>
       <c r="AG131" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH131" t="s" s="2">
         <v>78</v>
@@ -17621,7 +17625,7 @@
       </c>
       <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D132" s="2"/>
       <c r="E132" t="s" s="2">
@@ -17640,16 +17644,16 @@
         <v>78</v>
       </c>
       <c r="J132" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K132" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K132" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L132" t="s" s="2">
         <v>249</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N132" s="2"/>
       <c r="O132" t="s" s="2">
@@ -17696,7 +17700,7 @@
         <v>78</v>
       </c>
       <c r="AD132" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AE132" t="s" s="2">
         <v>250</v>
@@ -17711,7 +17715,7 @@
         <v>78</v>
       </c>
       <c r="AI132" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ132" t="s" s="2">
         <v>78</v>
@@ -17745,19 +17749,19 @@
         <v>79</v>
       </c>
       <c r="F133" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G133" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H133" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I133" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G133" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H133" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I133" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J133" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K133" t="s" s="2">
         <v>507</v>
@@ -17822,19 +17826,19 @@
         <v>79</v>
       </c>
       <c r="AG133" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH133" t="s" s="2">
         <v>511</v>
       </c>
       <c r="AI133" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ133" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK133" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL133" t="s" s="2">
         <v>78</v>
@@ -17862,19 +17866,19 @@
         <v>79</v>
       </c>
       <c r="F134" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G134" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H134" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I134" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G134" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H134" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I134" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J134" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K134" t="s" s="2">
         <v>513</v>
@@ -17909,7 +17913,7 @@
         <v>78</v>
       </c>
       <c r="W134" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X134" t="s" s="2">
         <v>516</v>
@@ -17939,19 +17943,19 @@
         <v>79</v>
       </c>
       <c r="AG134" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH134" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI134" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ134" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK134" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL134" t="s" s="2">
         <v>78</v>
@@ -17979,16 +17983,16 @@
         <v>79</v>
       </c>
       <c r="F135" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G135" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H135" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I135" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="G135" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H135" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I135" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J135" t="s" s="2">
         <v>520</v>
@@ -18056,13 +18060,13 @@
         <v>79</v>
       </c>
       <c r="AG135" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH135" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI135" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ135" t="s" s="2">
         <v>78</v>
@@ -18096,7 +18100,7 @@
         <v>79</v>
       </c>
       <c r="F136" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G136" t="s" s="2">
         <v>78</v>
@@ -18108,7 +18112,7 @@
         <v>78</v>
       </c>
       <c r="J136" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K136" t="s" s="2">
         <v>244</v>
@@ -18171,7 +18175,7 @@
         <v>79</v>
       </c>
       <c r="AG136" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH136" t="s" s="2">
         <v>78</v>
@@ -18204,7 +18208,7 @@
       </c>
       <c r="B137" s="2"/>
       <c r="C137" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D137" s="2"/>
       <c r="E137" t="s" s="2">
@@ -18223,16 +18227,16 @@
         <v>78</v>
       </c>
       <c r="J137" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K137" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K137" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L137" t="s" s="2">
         <v>249</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N137" s="2"/>
       <c r="O137" t="s" s="2">
@@ -18279,7 +18283,7 @@
         <v>78</v>
       </c>
       <c r="AD137" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AE137" t="s" s="2">
         <v>250</v>
@@ -18294,7 +18298,7 @@
         <v>78</v>
       </c>
       <c r="AI137" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ137" t="s" s="2">
         <v>78</v>
@@ -18328,19 +18332,19 @@
         <v>79</v>
       </c>
       <c r="F138" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G138" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H138" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G138" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H138" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="I138" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J138" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K138" t="s" s="2">
         <v>529</v>
@@ -18377,7 +18381,7 @@
         <v>78</v>
       </c>
       <c r="W138" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="X138" t="s" s="2">
         <v>533</v>
@@ -18407,13 +18411,13 @@
         <v>79</v>
       </c>
       <c r="AG138" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH138" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI138" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ138" t="s" s="2">
         <v>78</v>
@@ -18447,16 +18451,16 @@
         <v>79</v>
       </c>
       <c r="F139" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G139" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H139" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I139" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="G139" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H139" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I139" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J139" t="s" s="2">
         <v>216</v>
@@ -18496,7 +18500,7 @@
         <v>78</v>
       </c>
       <c r="W139" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X139" t="s" s="2">
         <v>542</v>
@@ -18526,13 +18530,13 @@
         <v>79</v>
       </c>
       <c r="AG139" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH139" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI139" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ139" t="s" s="2">
         <v>78</v>
@@ -18566,19 +18570,19 @@
         <v>79</v>
       </c>
       <c r="F140" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G140" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H140" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I140" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G140" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H140" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I140" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J140" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K140" t="s" s="2">
         <v>546</v>
@@ -18645,13 +18649,13 @@
         <v>79</v>
       </c>
       <c r="AG140" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH140" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI140" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ140" t="s" s="2">
         <v>78</v>
@@ -18682,22 +18686,22 @@
       </c>
       <c r="D141" s="2"/>
       <c r="E141" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F141" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G141" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H141" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I141" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F141" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G141" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H141" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I141" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J141" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K141" t="s" s="2">
         <v>554</v>
@@ -18762,13 +18766,13 @@
         <v>79</v>
       </c>
       <c r="AG141" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH141" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI141" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ141" t="s" s="2">
         <v>78</v>
@@ -18802,19 +18806,19 @@
         <v>79</v>
       </c>
       <c r="F142" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G142" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H142" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I142" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G142" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H142" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I142" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J142" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K142" t="s" s="2">
         <v>561</v>
@@ -18877,13 +18881,13 @@
         <v>79</v>
       </c>
       <c r="AG142" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH142" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI142" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ142" t="s" s="2">
         <v>78</v>
@@ -18917,16 +18921,16 @@
         <v>79</v>
       </c>
       <c r="F143" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G143" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H143" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I143" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="G143" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H143" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I143" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J143" t="s" s="2">
         <v>566</v>
@@ -18994,13 +18998,13 @@
         <v>79</v>
       </c>
       <c r="AG143" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH143" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI143" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ143" t="s" s="2">
         <v>78</v>
@@ -19034,19 +19038,19 @@
         <v>79</v>
       </c>
       <c r="F144" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G144" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H144" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I144" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G144" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H144" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I144" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J144" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K144" t="s" s="2">
         <v>573</v>
@@ -19111,19 +19115,19 @@
         <v>79</v>
       </c>
       <c r="AG144" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH144" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI144" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ144" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK144" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL144" t="s" s="2">
         <v>78</v>
@@ -19148,10 +19152,10 @@
       </c>
       <c r="D145" s="2"/>
       <c r="E145" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F145" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G145" t="s" s="2">
         <v>78</v>
@@ -19163,7 +19167,7 @@
         <v>78</v>
       </c>
       <c r="J145" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K145" t="s" s="2">
         <v>420</v>
@@ -19200,7 +19204,7 @@
         <v>78</v>
       </c>
       <c r="W145" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X145" t="s" s="2">
         <v>424</v>
@@ -19230,13 +19234,13 @@
         <v>79</v>
       </c>
       <c r="AG145" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH145" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI145" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ145" t="s" s="2">
         <v>78</v>
@@ -19248,7 +19252,7 @@
         <v>427</v>
       </c>
       <c r="AM145" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN145" t="s" s="2">
         <v>428</v>
@@ -19270,7 +19274,7 @@
         <v>79</v>
       </c>
       <c r="F146" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G146" t="s" s="2">
         <v>78</v>
@@ -19282,7 +19286,7 @@
         <v>78</v>
       </c>
       <c r="J146" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K146" t="s" s="2">
         <v>431</v>
@@ -19317,7 +19321,7 @@
         <v>78</v>
       </c>
       <c r="W146" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X146" t="s" s="2">
         <v>434</v>
@@ -19347,13 +19351,13 @@
         <v>79</v>
       </c>
       <c r="AG146" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH146" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI146" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ146" t="s" s="2">
         <v>78</v>
@@ -19387,7 +19391,7 @@
         <v>79</v>
       </c>
       <c r="F147" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G147" t="s" s="2">
         <v>78</v>
@@ -19399,7 +19403,7 @@
         <v>78</v>
       </c>
       <c r="J147" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K147" t="s" s="2">
         <v>441</v>
@@ -19436,7 +19440,7 @@
         <v>78</v>
       </c>
       <c r="W147" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X147" t="s" s="2">
         <v>442</v>
@@ -19466,13 +19470,13 @@
         <v>79</v>
       </c>
       <c r="AG147" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH147" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI147" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ147" t="s" s="2">
         <v>78</v>
@@ -19518,7 +19522,7 @@
         <v>78</v>
       </c>
       <c r="J148" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K148" t="s" s="2">
         <v>450</v>
@@ -19555,7 +19559,7 @@
         <v>78</v>
       </c>
       <c r="W148" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X148" t="s" s="2">
         <v>454</v>
@@ -19591,7 +19595,7 @@
         <v>78</v>
       </c>
       <c r="AI148" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ148" t="s" s="2">
         <v>78</v>
@@ -19625,19 +19629,19 @@
         <v>79</v>
       </c>
       <c r="F149" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G149" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H149" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I149" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G149" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H149" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I149" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J149" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K149" t="s" s="2">
         <v>459</v>
@@ -19704,13 +19708,13 @@
         <v>79</v>
       </c>
       <c r="AG149" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH149" t="s" s="2">
         <v>463</v>
       </c>
       <c r="AI149" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ149" t="s" s="2">
         <v>78</v>
@@ -19744,7 +19748,7 @@
         <v>79</v>
       </c>
       <c r="F150" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G150" t="s" s="2">
         <v>78</v>
@@ -19756,7 +19760,7 @@
         <v>78</v>
       </c>
       <c r="J150" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K150" t="s" s="2">
         <v>468</v>
@@ -19821,13 +19825,13 @@
         <v>79</v>
       </c>
       <c r="AG150" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH150" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI150" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ150" t="s" s="2">
         <v>78</v>
@@ -19861,16 +19865,16 @@
         <v>79</v>
       </c>
       <c r="F151" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G151" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H151" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I151" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="G151" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H151" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I151" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J151" t="s" s="2">
         <v>473</v>
@@ -19940,13 +19944,13 @@
         <v>79</v>
       </c>
       <c r="AG151" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH151" t="s" s="2">
         <v>463</v>
       </c>
       <c r="AI151" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ151" t="s" s="2">
         <v>78</v>
@@ -20063,7 +20067,7 @@
         <v>78</v>
       </c>
       <c r="AI152" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ152" t="s" s="2">
         <v>78</v>
@@ -20097,7 +20101,7 @@
         <v>79</v>
       </c>
       <c r="F153" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G153" t="s" s="2">
         <v>78</v>
@@ -20109,7 +20113,7 @@
         <v>78</v>
       </c>
       <c r="J153" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K153" t="s" s="2">
         <v>244</v>
@@ -20172,7 +20176,7 @@
         <v>79</v>
       </c>
       <c r="AG153" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH153" t="s" s="2">
         <v>78</v>
@@ -20205,7 +20209,7 @@
       </c>
       <c r="B154" s="2"/>
       <c r="C154" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D154" s="2"/>
       <c r="E154" t="s" s="2">
@@ -20224,16 +20228,16 @@
         <v>78</v>
       </c>
       <c r="J154" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K154" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K154" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L154" t="s" s="2">
         <v>249</v>
       </c>
       <c r="M154" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N154" s="2"/>
       <c r="O154" t="s" s="2">
@@ -20295,7 +20299,7 @@
         <v>78</v>
       </c>
       <c r="AI154" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ154" t="s" s="2">
         <v>78</v>
@@ -20335,13 +20339,13 @@
         <v>78</v>
       </c>
       <c r="H155" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I155" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J155" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K155" t="s" s="2">
         <v>253</v>
@@ -20350,10 +20354,10 @@
         <v>254</v>
       </c>
       <c r="M155" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N155" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O155" t="s" s="2">
         <v>78</v>
@@ -20414,13 +20418,13 @@
         <v>78</v>
       </c>
       <c r="AI155" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ155" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK155" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL155" t="s" s="2">
         <v>78</v>
@@ -20445,10 +20449,10 @@
       </c>
       <c r="D156" s="2"/>
       <c r="E156" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F156" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G156" t="s" s="2">
         <v>78</v>
@@ -20460,7 +20464,7 @@
         <v>78</v>
       </c>
       <c r="J156" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K156" t="s" s="2">
         <v>490</v>
@@ -20520,16 +20524,16 @@
         <v>489</v>
       </c>
       <c r="AF156" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG156" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH156" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI156" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ156" t="s" s="2">
         <v>78</v>
@@ -20560,10 +20564,10 @@
       </c>
       <c r="D157" s="2"/>
       <c r="E157" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F157" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G157" t="s" s="2">
         <v>78</v>
@@ -20639,16 +20643,16 @@
         <v>493</v>
       </c>
       <c r="AF157" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG157" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH157" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI157" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ157" t="s" s="2">
         <v>78</v>
@@ -20681,10 +20685,10 @@
       </c>
       <c r="D158" s="2"/>
       <c r="E158" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F158" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G158" t="s" s="2">
         <v>78</v>
@@ -20781,7 +20785,7 @@
         <v>407</v>
       </c>
       <c r="AM158" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN158" t="s" s="2">
         <v>408</v>
@@ -20803,7 +20807,7 @@
         <v>79</v>
       </c>
       <c r="F159" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G159" t="s" s="2">
         <v>78</v>
@@ -20815,7 +20819,7 @@
         <v>78</v>
       </c>
       <c r="J159" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K159" t="s" s="2">
         <v>244</v>
@@ -20878,7 +20882,7 @@
         <v>79</v>
       </c>
       <c r="AG159" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH159" t="s" s="2">
         <v>78</v>
@@ -20911,7 +20915,7 @@
       </c>
       <c r="B160" s="2"/>
       <c r="C160" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D160" s="2"/>
       <c r="E160" t="s" s="2">
@@ -20930,16 +20934,16 @@
         <v>78</v>
       </c>
       <c r="J160" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K160" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K160" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L160" t="s" s="2">
         <v>249</v>
       </c>
       <c r="M160" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N160" s="2"/>
       <c r="O160" t="s" s="2">
@@ -21001,7 +21005,7 @@
         <v>78</v>
       </c>
       <c r="AI160" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ160" t="s" s="2">
         <v>78</v>
@@ -21041,13 +21045,13 @@
         <v>78</v>
       </c>
       <c r="H161" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I161" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J161" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K161" t="s" s="2">
         <v>253</v>
@@ -21056,10 +21060,10 @@
         <v>254</v>
       </c>
       <c r="M161" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N161" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O161" t="s" s="2">
         <v>78</v>
@@ -21120,13 +21124,13 @@
         <v>78</v>
       </c>
       <c r="AI161" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ161" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK161" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL161" t="s" s="2">
         <v>78</v>
@@ -21151,19 +21155,19 @@
       </c>
       <c r="D162" s="2"/>
       <c r="E162" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F162" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G162" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H162" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I162" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="F162" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G162" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H162" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I162" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J162" t="s" s="2">
         <v>414</v>
@@ -21229,13 +21233,13 @@
         <v>79</v>
       </c>
       <c r="AG162" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH162" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI162" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ162" t="s" s="2">
         <v>78</v>
@@ -21247,7 +21251,7 @@
         <v>417</v>
       </c>
       <c r="AM162" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN162" t="s" s="2">
         <v>78</v>
@@ -21266,10 +21270,10 @@
       </c>
       <c r="D163" s="2"/>
       <c r="E163" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F163" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G163" t="s" s="2">
         <v>78</v>
@@ -21281,7 +21285,7 @@
         <v>78</v>
       </c>
       <c r="J163" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K163" t="s" s="2">
         <v>420</v>
@@ -21318,7 +21322,7 @@
         <v>78</v>
       </c>
       <c r="W163" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X163" t="s" s="2">
         <v>424</v>
@@ -21348,13 +21352,13 @@
         <v>79</v>
       </c>
       <c r="AG163" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH163" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI163" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ163" t="s" s="2">
         <v>78</v>
@@ -21366,7 +21370,7 @@
         <v>427</v>
       </c>
       <c r="AM163" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN163" t="s" s="2">
         <v>428</v>
@@ -21388,7 +21392,7 @@
         <v>79</v>
       </c>
       <c r="F164" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G164" t="s" s="2">
         <v>78</v>
@@ -21400,7 +21404,7 @@
         <v>78</v>
       </c>
       <c r="J164" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K164" t="s" s="2">
         <v>431</v>
@@ -21435,7 +21439,7 @@
         <v>78</v>
       </c>
       <c r="W164" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="X164" s="2"/>
       <c r="Y164" t="s" s="2">
@@ -21463,13 +21467,13 @@
         <v>79</v>
       </c>
       <c r="AG164" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH164" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI164" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ164" t="s" s="2">
         <v>78</v>
@@ -21503,7 +21507,7 @@
         <v>79</v>
       </c>
       <c r="F165" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G165" t="s" s="2">
         <v>78</v>
@@ -21515,7 +21519,7 @@
         <v>78</v>
       </c>
       <c r="J165" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K165" t="s" s="2">
         <v>441</v>
@@ -21552,7 +21556,7 @@
         <v>78</v>
       </c>
       <c r="W165" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X165" t="s" s="2">
         <v>442</v>
@@ -21582,13 +21586,13 @@
         <v>79</v>
       </c>
       <c r="AG165" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH165" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI165" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ165" t="s" s="2">
         <v>78</v>
@@ -21634,7 +21638,7 @@
         <v>78</v>
       </c>
       <c r="J166" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K166" t="s" s="2">
         <v>581</v>
@@ -21671,7 +21675,7 @@
         <v>78</v>
       </c>
       <c r="W166" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X166" t="s" s="2">
         <v>454</v>
@@ -21707,7 +21711,7 @@
         <v>78</v>
       </c>
       <c r="AI166" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ166" t="s" s="2">
         <v>78</v>
@@ -21741,19 +21745,19 @@
         <v>79</v>
       </c>
       <c r="F167" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G167" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H167" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I167" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G167" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H167" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I167" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J167" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K167" t="s" s="2">
         <v>459</v>
@@ -21820,13 +21824,13 @@
         <v>79</v>
       </c>
       <c r="AG167" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH167" t="s" s="2">
         <v>463</v>
       </c>
       <c r="AI167" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ167" t="s" s="2">
         <v>78</v>
@@ -21860,7 +21864,7 @@
         <v>79</v>
       </c>
       <c r="F168" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G168" t="s" s="2">
         <v>78</v>
@@ -21872,7 +21876,7 @@
         <v>78</v>
       </c>
       <c r="J168" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K168" t="s" s="2">
         <v>468</v>
@@ -21937,13 +21941,13 @@
         <v>79</v>
       </c>
       <c r="AG168" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH168" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI168" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ168" t="s" s="2">
         <v>78</v>
@@ -21977,16 +21981,16 @@
         <v>79</v>
       </c>
       <c r="F169" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G169" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H169" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I169" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="G169" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H169" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I169" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J169" t="s" s="2">
         <v>473</v>
@@ -22056,13 +22060,13 @@
         <v>79</v>
       </c>
       <c r="AG169" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH169" t="s" s="2">
         <v>463</v>
       </c>
       <c r="AI169" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ169" t="s" s="2">
         <v>78</v>
@@ -22179,7 +22183,7 @@
         <v>78</v>
       </c>
       <c r="AI170" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ170" t="s" s="2">
         <v>78</v>
@@ -22213,7 +22217,7 @@
         <v>79</v>
       </c>
       <c r="F171" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G171" t="s" s="2">
         <v>78</v>
@@ -22225,7 +22229,7 @@
         <v>78</v>
       </c>
       <c r="J171" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K171" t="s" s="2">
         <v>244</v>
@@ -22288,7 +22292,7 @@
         <v>79</v>
       </c>
       <c r="AG171" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH171" t="s" s="2">
         <v>78</v>
@@ -22321,7 +22325,7 @@
       </c>
       <c r="B172" s="2"/>
       <c r="C172" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D172" s="2"/>
       <c r="E172" t="s" s="2">
@@ -22340,16 +22344,16 @@
         <v>78</v>
       </c>
       <c r="J172" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K172" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K172" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L172" t="s" s="2">
         <v>249</v>
       </c>
       <c r="M172" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N172" s="2"/>
       <c r="O172" t="s" s="2">
@@ -22411,7 +22415,7 @@
         <v>78</v>
       </c>
       <c r="AI172" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ172" t="s" s="2">
         <v>78</v>
@@ -22451,13 +22455,13 @@
         <v>78</v>
       </c>
       <c r="H173" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I173" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J173" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K173" t="s" s="2">
         <v>253</v>
@@ -22466,10 +22470,10 @@
         <v>254</v>
       </c>
       <c r="M173" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N173" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O173" t="s" s="2">
         <v>78</v>
@@ -22530,13 +22534,13 @@
         <v>78</v>
       </c>
       <c r="AI173" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ173" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK173" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL173" t="s" s="2">
         <v>78</v>
@@ -22561,10 +22565,10 @@
       </c>
       <c r="D174" s="2"/>
       <c r="E174" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F174" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G174" t="s" s="2">
         <v>78</v>
@@ -22576,7 +22580,7 @@
         <v>78</v>
       </c>
       <c r="J174" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K174" t="s" s="2">
         <v>490</v>
@@ -22636,16 +22640,16 @@
         <v>489</v>
       </c>
       <c r="AF174" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG174" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH174" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI174" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ174" t="s" s="2">
         <v>78</v>
@@ -22676,10 +22680,10 @@
       </c>
       <c r="D175" s="2"/>
       <c r="E175" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F175" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G175" t="s" s="2">
         <v>78</v>
@@ -22755,16 +22759,16 @@
         <v>493</v>
       </c>
       <c r="AF175" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG175" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH175" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI175" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ175" t="s" s="2">
         <v>78</v>
